--- a/biology/Médecine/J'ai_placé_ma_mère/J'ai_placé_ma_mère.xlsx
+++ b/biology/Médecine/J'ai_placé_ma_mère/J'ai_placé_ma_mère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%27ai_plac%C3%A9_ma_m%C3%A8re</t>
+          <t>J'ai_placé_ma_mère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">J'ai placé ma mère est un film documentaire québécois réalisé et produit par Denys Desjardins en 2022.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%27ai_plac%C3%A9_ma_m%C3%A8re</t>
+          <t>J'ai_placé_ma_mère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la manière d'un journal filmé, ce documentaire nous plonge dans l’expérience personnelle du cinéaste Denys Desjardins et de sa sœur qui sont confrontés au système québécois d'hébergement et de placement des aînés. Alors que leur mère Madeleine se trouve évincée de sa résidence pour aînés (RPA)[1], ils cherchent à lui trouver une place dans un Centre d'hébergement de soins de longue durée (CHSLD) afin qu'elle puisse finir dignement ses jours.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la manière d'un journal filmé, ce documentaire nous plonge dans l’expérience personnelle du cinéaste Denys Desjardins et de sa sœur qui sont confrontés au système québécois d'hébergement et de placement des aînés. Alors que leur mère Madeleine se trouve évincée de sa résidence pour aînés (RPA), ils cherchent à lui trouver une place dans un Centre d'hébergement de soins de longue durée (CHSLD) afin qu'elle puisse finir dignement ses jours.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%27ai_plac%C3%A9_ma_m%C3%A8re</t>
+          <t>J'ai_placé_ma_mère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : J'ai placé ma mère
 Titre anglais : I Lost My Mom
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>J%27ai_plac%C3%A9_ma_m%C3%A8re</t>
+          <t>J'ai_placé_ma_mère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Madeleine Ducharme
 Maryse Desjardins
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>J%27ai_plac%C3%A9_ma_m%C3%A8re</t>
+          <t>J'ai_placé_ma_mère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,9 +632,11 @@
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce film a été sélectionné dans la compétition nationale longs métrages 2022 lors de la 25e édition des Rencontres internationales du documentaire de Montréal (RIDM)[2]. La première s'est tenue à la Cinémathèque québécoise en présence du réalisateur et des membres de son équipe le 21 novembre 2022[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce film a été sélectionné dans la compétition nationale longs métrages 2022 lors de la 25e édition des Rencontres internationales du documentaire de Montréal (RIDM). La première s'est tenue à la Cinémathèque québécoise en présence du réalisateur et des membres de son équipe le 21 novembre 2022.
 </t>
         </is>
       </c>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>J%27ai_plac%C3%A9_ma_m%C3%A8re</t>
+          <t>J'ai_placé_ma_mère</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,9 +665,11 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 6 mai 2023, le film remporte le prix du meilleur documentaire canadien au festival Hot Docs, à Toronto[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 6 mai 2023, le film remporte le prix du meilleur documentaire canadien au festival Hot Docs, à Toronto.
 </t>
         </is>
       </c>
